--- a/record/Recordlist.xlsx
+++ b/record/Recordlist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programmieren\Python\adventofcode2023\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C152898E-4DA0-4F24-AA81-DB9E0062FF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC741D90-C980-408D-8EBF-EF9D745104F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Records" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -685,7 +685,7 @@
   <dimension ref="B2:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,10 +725,20 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="11"/>
+      <c r="C5" s="7">
+        <v>7.3958333333333341E-3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.431712962962963E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <f>D5+C5</f>
+        <v>3.1712962962962964E-2</v>
+      </c>
+      <c r="F5" s="11">
+        <f>E5/COUNT(C5:D5)</f>
+        <v>1.5856481481481482E-2</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
@@ -952,19 +962,19 @@
       </c>
       <c r="C30" s="17">
         <f>SUM(C5:C29)</f>
-        <v>0</v>
+        <v>7.3958333333333341E-3</v>
       </c>
       <c r="D30" s="17">
         <f t="shared" ref="D30:E30" si="0">SUM(D5:D29)</f>
-        <v>0</v>
+        <v>2.431712962962963E-2</v>
       </c>
       <c r="E30" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="18" t="e">
+        <v>3.1712962962962964E-2</v>
+      </c>
+      <c r="F30" s="18">
         <f>SUM(C5:D29)/COUNT(C5:D29)</f>
-        <v>#DIV/0!</v>
+        <v>1.5856481481481482E-2</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/record/Recordlist.xlsx
+++ b/record/Recordlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programmieren\Python\adventofcode2023\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC741D90-C980-408D-8EBF-EF9D745104F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7CFA32-9A1C-455A-8EEC-D82D7F84976C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -684,9 +684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -744,10 +742,20 @@
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="13"/>
+      <c r="C6" s="12">
+        <v>4.6296296296296302E-3</v>
+      </c>
+      <c r="D6" s="8">
+        <v>8.6805555555555559E-3</v>
+      </c>
+      <c r="E6" s="8">
+        <f>D6+C6</f>
+        <v>1.3310185185185185E-2</v>
+      </c>
+      <c r="F6" s="13">
+        <f>E6/COUNT(C6:D6)</f>
+        <v>6.6550925925925927E-3</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
@@ -962,19 +970,19 @@
       </c>
       <c r="C30" s="17">
         <f>SUM(C5:C29)</f>
-        <v>7.3958333333333341E-3</v>
+        <v>1.2025462962962963E-2</v>
       </c>
       <c r="D30" s="17">
         <f t="shared" ref="D30:E30" si="0">SUM(D5:D29)</f>
-        <v>2.431712962962963E-2</v>
+        <v>3.2997685185185185E-2</v>
       </c>
       <c r="E30" s="17">
         <f t="shared" si="0"/>
-        <v>3.1712962962962964E-2</v>
+        <v>4.5023148148148145E-2</v>
       </c>
       <c r="F30" s="18">
         <f>SUM(C5:D29)/COUNT(C5:D29)</f>
-        <v>1.5856481481481482E-2</v>
+        <v>1.1255787037037036E-2</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/record/Recordlist.xlsx
+++ b/record/Recordlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programmieren\Python\adventofcode2023\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7CFA32-9A1C-455A-8EEC-D82D7F84976C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E424880-5B07-4FB7-98B2-2F4EC0E01E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -761,10 +761,18 @@
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="12">
+        <v>6.3726851851851854E-2</v>
+      </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="13"/>
+      <c r="E7" s="8">
+        <f>D7+C7</f>
+        <v>6.3726851851851854E-2</v>
+      </c>
+      <c r="F7" s="13">
+        <f>E7/COUNT(C7:D7)</f>
+        <v>6.3726851851851854E-2</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
@@ -970,7 +978,7 @@
       </c>
       <c r="C30" s="17">
         <f>SUM(C5:C29)</f>
-        <v>1.2025462962962963E-2</v>
+        <v>7.5752314814814814E-2</v>
       </c>
       <c r="D30" s="17">
         <f t="shared" ref="D30:E30" si="0">SUM(D5:D29)</f>
@@ -978,11 +986,11 @@
       </c>
       <c r="E30" s="17">
         <f t="shared" si="0"/>
-        <v>4.5023148148148145E-2</v>
+        <v>0.10875</v>
       </c>
       <c r="F30" s="18">
         <f>SUM(C5:D29)/COUNT(C5:D29)</f>
-        <v>1.1255787037037036E-2</v>
+        <v>2.1749999999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/record/Recordlist.xlsx
+++ b/record/Recordlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programmieren\Python\adventofcode2023\record\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q506869\OneDrive - BMW Group\Dokumente\07_Programmieren\02_Python\adventofcode2023\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E424880-5B07-4FB7-98B2-2F4EC0E01E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FC1170-EA3A-4F14-A2B4-F18338E08A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="1410" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Records" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -686,14 +697,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.85546875" style="1" customWidth="1"/>
-    <col min="3" max="6" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" style="1" customWidth="1"/>
+    <col min="3" max="6" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -704,7 +715,7 @@
       <c r="E3" s="19"/>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="22"/>
       <c r="C4" s="9" t="s">
         <v>4</v>
@@ -719,7 +730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>1</v>
       </c>
@@ -738,7 +749,7 @@
         <v>1.5856481481481482E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>2</v>
       </c>
@@ -757,7 +768,7 @@
         <v>6.6550925925925927E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -774,16 +785,26 @@
         <v>6.3726851851851854E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="12">
+        <v>9.1087962962962971E-3</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2.0069444444444442E-2</v>
+      </c>
+      <c r="E8" s="8">
+        <f>D8+C8</f>
+        <v>2.9178240740740741E-2</v>
+      </c>
+      <c r="F8" s="13">
+        <f>E8/COUNT(C8:D8)</f>
+        <v>1.458912037037037E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -792,16 +813,26 @@
       <c r="E9" s="8"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="12">
+        <v>2.1030092592592597E-2</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2.4351851851851857E-2</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" ref="E9:E10" si="0">D10+C10</f>
+        <v>4.5381944444444454E-2</v>
+      </c>
+      <c r="F10" s="13">
+        <f t="shared" ref="F9:F10" si="1">E10/COUNT(C10:D10)</f>
+        <v>2.2690972222222227E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -810,7 +841,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -819,7 +850,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -828,7 +859,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -837,7 +868,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -846,7 +877,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -855,7 +886,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -864,7 +895,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -873,7 +904,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -882,7 +913,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -891,7 +922,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -900,7 +931,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -909,7 +940,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -918,7 +949,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -927,7 +958,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -936,7 +967,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <v>22</v>
       </c>
@@ -945,7 +976,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>23</v>
       </c>
@@ -954,7 +985,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="13"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>24</v>
       </c>
@@ -963,7 +994,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="5">
         <v>25</v>
       </c>
@@ -972,28 +1003,28 @@
       <c r="E29" s="15"/>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="17">
         <f>SUM(C5:C29)</f>
-        <v>7.5752314814814814E-2</v>
+        <v>0.10589120370370371</v>
       </c>
       <c r="D30" s="17">
-        <f t="shared" ref="D30:E30" si="0">SUM(D5:D29)</f>
-        <v>3.2997685185185185E-2</v>
+        <f t="shared" ref="D30:E30" si="2">SUM(D5:D29)</f>
+        <v>7.7418981481481491E-2</v>
       </c>
       <c r="E30" s="17">
-        <f t="shared" si="0"/>
-        <v>0.10875</v>
+        <f t="shared" si="2"/>
+        <v>0.18331018518518519</v>
       </c>
       <c r="F30" s="18">
-        <f>SUM(C5:D29)/COUNT(C5:D29)</f>
-        <v>2.1749999999999999E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <f>SUM(C30:D30)/COUNT(C5:D29)</f>
+        <v>2.0367798353909467E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C3:F3"/>
